--- a/R/原始数据.xlsx
+++ b/R/原始数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProgram\biye\R\三线表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProgram\biye\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FB2AD-6332-4AC2-8CBD-DC27D6C25D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B31E8-E6D2-4F1D-AF57-84D2D7CA34A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,9 +1143,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1516,16 +1513,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB9F96D-8121-4F76-9C0F-2D59C54E0E6C}">
   <dimension ref="A1:FJ154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC154"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
+    <col min="15" max="15" width="42" customWidth="1"/>
     <col min="30" max="166" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="33.5" thickBot="1">
+    <row r="1" spans="1:166" ht="30.4" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -1601,16 +1599,16 @@
       <c r="Y1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="5" t="s">
         <v>323</v>
       </c>
       <c r="AD1" t="s">
@@ -2025,7 +2023,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:166" ht="14.5" thickTop="1">
+    <row r="2" spans="1:166" ht="14.25" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>

--- a/R/原始数据.xlsx
+++ b/R/原始数据.xlsx
@@ -5,18 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProgram\biye\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProgram\biye\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F72E8E-93A2-413F-91C1-6C684B17FEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03817AFC-A580-4AD8-AD0F-ADF036F95DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$FJ$154</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1377,18 +1391,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:FJ154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:XFD154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="21" max="21" width="18.08984375" customWidth="1"/>
+    <col min="21" max="21" width="18.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:166" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1903,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -2388,7 +2403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -2888,7 +2903,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -3388,7 +3403,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="5" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -3888,7 +3903,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -4388,7 +4403,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>174</v>
       </c>
@@ -4888,7 +4903,7 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -5388,7 +5403,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -5888,7 +5903,7 @@
         <v>9.41</v>
       </c>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -6388,7 +6403,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -6888,7 +6903,7 @@
         <v>11.36</v>
       </c>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -7388,7 +7403,7 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>180</v>
       </c>
@@ -7888,7 +7903,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -8388,7 +8403,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -8888,7 +8903,7 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>183</v>
       </c>
@@ -9388,7 +9403,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -9888,7 +9903,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="18" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>185</v>
       </c>
@@ -10388,7 +10403,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -10888,7 +10903,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="20" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>187</v>
       </c>
@@ -11388,7 +11403,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="21" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -11888,7 +11903,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="22" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -12388,7 +12403,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="23" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>190</v>
       </c>
@@ -12888,7 +12903,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="24" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -13388,7 +13403,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="25" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>192</v>
       </c>
@@ -13888,7 +13903,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="26" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>193</v>
       </c>
@@ -14388,7 +14403,7 @@
         <v>9.02</v>
       </c>
     </row>
-    <row r="27" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>194</v>
       </c>
@@ -14888,7 +14903,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="28" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -15388,7 +15403,7 @@
         <v>29.47</v>
       </c>
     </row>
-    <row r="29" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>196</v>
       </c>
@@ -15888,7 +15903,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="30" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>197</v>
       </c>
@@ -16388,7 +16403,7 @@
         <v>15.79</v>
       </c>
     </row>
-    <row r="31" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>198</v>
       </c>
@@ -16888,7 +16903,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="32" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>199</v>
       </c>
@@ -17388,7 +17403,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="33" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -17888,7 +17903,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="34" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>201</v>
       </c>
@@ -18388,7 +18403,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="35" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -18888,7 +18903,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="36" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>203</v>
       </c>
@@ -19388,7 +19403,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="37" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -19888,7 +19903,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="38" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>205</v>
       </c>
@@ -20388,7 +20403,7 @@
         <v>22.52</v>
       </c>
     </row>
-    <row r="39" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>206</v>
       </c>
@@ -20888,7 +20903,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="40" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>207</v>
       </c>
@@ -21388,7 +21403,7 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="41" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>208</v>
       </c>
@@ -21888,7 +21903,7 @@
         <v>10.59</v>
       </c>
     </row>
-    <row r="42" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>209</v>
       </c>
@@ -22388,7 +22403,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="43" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>210</v>
       </c>
@@ -22888,7 +22903,7 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="44" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>211</v>
       </c>
@@ -23388,7 +23403,7 @@
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="45" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>212</v>
       </c>
@@ -23888,7 +23903,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="46" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>213</v>
       </c>
@@ -24388,7 +24403,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="47" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -24888,7 +24903,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="48" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>215</v>
       </c>
@@ -25388,7 +25403,7 @@
         <v>9.48</v>
       </c>
     </row>
-    <row r="49" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>216</v>
       </c>
@@ -25888,7 +25903,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="50" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -26388,7 +26403,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>218</v>
       </c>
@@ -26888,7 +26903,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="52" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>219</v>
       </c>
@@ -27388,7 +27403,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="53" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>220</v>
       </c>
@@ -27888,7 +27903,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="54" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>221</v>
       </c>
@@ -28388,7 +28403,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="55" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>222</v>
       </c>
@@ -28888,7 +28903,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="56" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>223</v>
       </c>
@@ -29388,7 +29403,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="57" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -29888,7 +29903,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="58" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>225</v>
       </c>
@@ -30388,7 +30403,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="59" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>226</v>
       </c>
@@ -30888,7 +30903,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="60" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>227</v>
       </c>
@@ -31388,7 +31403,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="61" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>228</v>
       </c>
@@ -31888,7 +31903,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="62" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>229</v>
       </c>
@@ -32388,7 +32403,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="63" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>230</v>
       </c>
@@ -32888,7 +32903,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="64" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>231</v>
       </c>
@@ -33388,7 +33403,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="65" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>232</v>
       </c>
@@ -33888,7 +33903,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="66" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -34388,7 +34403,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="67" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>234</v>
       </c>
@@ -34888,7 +34903,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="68" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -35388,7 +35403,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="69" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>236</v>
       </c>
@@ -35888,7 +35903,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="70" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>237</v>
       </c>
@@ -36388,7 +36403,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="71" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -36888,7 +36903,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="72" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>239</v>
       </c>
@@ -37388,7 +37403,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="73" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>240</v>
       </c>
@@ -37888,7 +37903,7 @@
         <v>11.03</v>
       </c>
     </row>
-    <row r="74" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>241</v>
       </c>
@@ -38388,7 +38403,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="75" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>242</v>
       </c>
@@ -38888,7 +38903,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="76" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>243</v>
       </c>
@@ -39388,7 +39403,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="77" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -39888,7 +39903,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="78" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>245</v>
       </c>
@@ -40388,7 +40403,7 @@
         <v>10.29</v>
       </c>
     </row>
-    <row r="79" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>246</v>
       </c>
@@ -40888,7 +40903,7 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="80" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>247</v>
       </c>
@@ -41388,7 +41403,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="81" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>248</v>
       </c>
@@ -41888,7 +41903,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="82" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>249</v>
       </c>
@@ -42388,7 +42403,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>250</v>
       </c>
@@ -42888,7 +42903,7 @@
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>251</v>
       </c>
@@ -43388,7 +43403,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="85" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>252</v>
       </c>
@@ -43888,7 +43903,7 @@
         <v>9.67</v>
       </c>
     </row>
-    <row r="86" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>253</v>
       </c>
@@ -44388,7 +44403,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="87" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>254</v>
       </c>
@@ -44888,7 +44903,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="88" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>255</v>
       </c>
@@ -45388,7 +45403,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="89" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>256</v>
       </c>
@@ -45888,7 +45903,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="90" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -46388,7 +46403,7 @@
         <v>8.57</v>
       </c>
     </row>
-    <row r="91" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>258</v>
       </c>
@@ -46888,7 +46903,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="92" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>259</v>
       </c>
@@ -47388,7 +47403,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="93" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>260</v>
       </c>
@@ -47888,7 +47903,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="94" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>261</v>
       </c>
@@ -48388,7 +48403,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="95" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>262</v>
       </c>
@@ -48888,7 +48903,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>263</v>
       </c>
@@ -49388,7 +49403,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="97" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>264</v>
       </c>
@@ -49888,7 +49903,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="98" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>265</v>
       </c>
@@ -50388,7 +50403,7 @@
         <v>9.4700000000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>266</v>
       </c>
@@ -50888,7 +50903,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="100" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:166" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>267</v>
       </c>
@@ -51388,7 +51403,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="101" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>268</v>
       </c>
@@ -51888,7 +51903,7 @@
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="102" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>269</v>
       </c>
@@ -52388,7 +52403,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="103" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>270</v>
       </c>
@@ -52892,7 +52907,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="104" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>273</v>
       </c>
@@ -53396,7 +53411,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>274</v>
       </c>
@@ -53900,7 +53915,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="106" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>275</v>
       </c>
@@ -54404,7 +54419,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>276</v>
       </c>
@@ -54908,7 +54923,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="108" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>277</v>
       </c>
@@ -55412,7 +55427,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="109" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>278</v>
       </c>
@@ -55916,7 +55931,7 @@
         <v>9.94</v>
       </c>
     </row>
-    <row r="110" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>279</v>
       </c>
@@ -56420,7 +56435,7 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="111" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>280</v>
       </c>
@@ -56924,7 +56939,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="112" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>281</v>
       </c>
@@ -57428,7 +57443,7 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="113" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>282</v>
       </c>
@@ -57932,7 +57947,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="114" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>283</v>
       </c>
@@ -58436,7 +58451,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="115" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>284</v>
       </c>
@@ -58940,7 +58955,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="116" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>285</v>
       </c>
@@ -59444,7 +59459,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="117" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>286</v>
       </c>
@@ -59948,7 +59963,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="118" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>287</v>
       </c>
@@ -60452,7 +60467,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="119" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>288</v>
       </c>
@@ -60956,7 +60971,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="120" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>289</v>
       </c>
@@ -61460,7 +61475,7 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="121" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>290</v>
       </c>
@@ -61964,7 +61979,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="122" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>291</v>
       </c>
@@ -62468,7 +62483,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="123" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>292</v>
       </c>
@@ -62972,7 +62987,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="124" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>293</v>
       </c>
@@ -63476,7 +63491,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="125" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>294</v>
       </c>
@@ -63980,7 +63995,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="126" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>295</v>
       </c>
@@ -64484,7 +64499,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>296</v>
       </c>
@@ -64988,7 +65003,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="128" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>297</v>
       </c>
@@ -65492,7 +65507,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="129" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>298</v>
       </c>
@@ -65996,7 +66011,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="130" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>299</v>
       </c>
@@ -66500,7 +66515,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="131" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>300</v>
       </c>
@@ -67004,7 +67019,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="132" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>301</v>
       </c>
@@ -67508,7 +67523,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="133" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>302</v>
       </c>
@@ -68012,7 +68027,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="134" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>303</v>
       </c>
@@ -68516,7 +68531,7 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="135" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>304</v>
       </c>
@@ -69020,7 +69035,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="136" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>305</v>
       </c>
@@ -69524,7 +69539,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="137" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>306</v>
       </c>
@@ -70028,7 +70043,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="138" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>307</v>
       </c>
@@ -70532,7 +70547,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="139" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>308</v>
       </c>
@@ -71036,7 +71051,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="140" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>309</v>
       </c>
@@ -71540,7 +71555,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="141" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>310</v>
       </c>
@@ -72044,7 +72059,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="142" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>311</v>
       </c>
@@ -72548,7 +72563,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="143" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>312</v>
       </c>
@@ -73052,7 +73067,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="144" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>313</v>
       </c>
@@ -73556,7 +73571,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="145" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>314</v>
       </c>
@@ -74060,7 +74075,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="146" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>315</v>
       </c>
@@ -74564,7 +74579,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="147" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>316</v>
       </c>
@@ -75068,7 +75083,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="148" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>317</v>
       </c>
@@ -75572,7 +75587,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="149" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>318</v>
       </c>
@@ -76076,7 +76091,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="150" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>319</v>
       </c>
@@ -76580,7 +76595,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="151" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>320</v>
       </c>
@@ -77084,7 +77099,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="152" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>321</v>
       </c>
@@ -77588,7 +77603,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="153" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>322</v>
       </c>
@@ -78092,7 +78107,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="154" spans="1:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:166" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>323</v>
       </c>
@@ -78597,6 +78612,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:FJ154" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AN-BP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FJ102">
     <sortCondition ref="A2:A102"/>
   </sortState>
@@ -78614,509 +78636,509 @@
       <selection sqref="A1:A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
